--- a/experiment_results/DataV2_F_VL0_0.5/BankAccountTP/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_F_VL0_0.5/BankAccountTP/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -806,10 +806,10 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>15.78947368421053</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -949,19 +949,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>6.578947368421052</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>6.578947368421052</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -1405,19 +1405,19 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>6.578947368421052</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>6.578947368421052</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -1443,10 +1443,10 @@
         <v>47</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>17.10526315789474</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="E20">
         <v>26</v>
@@ -1747,19 +1747,19 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>7.894736842105263</v>
+        <v>27.63157894736842</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G28">
-        <v>7.894736842105263</v>
+        <v>27.63157894736842</v>
       </c>
       <c r="H28">
         <v>13</v>
@@ -2127,10 +2127,10 @@
         <v>15</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>17.10526315789474</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="E38">
         <v>26</v>
@@ -2735,10 +2735,10 @@
         <v>68</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E54">
         <v>24</v>
@@ -2887,10 +2887,10 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>6.578947368421052</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -3343,19 +3343,19 @@
         <v>84</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>3.947368421052631</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G70">
-        <v>3.947368421052631</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -11067,10 +11067,10 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G50">
-        <v>18.42105263157895</v>
+        <v>64.47368421052632</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -11105,10 +11105,10 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H51">
         <v>10</v>
@@ -13085,19 +13085,19 @@
         <v>47</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>19.73684210526316</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>9.210526315789473</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -13199,19 +13199,19 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>5.263157894736842</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -13807,19 +13807,19 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>7.894736842105263</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G48">
-        <v>7.894736842105263</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H48">
         <v>6</v>
@@ -14073,19 +14073,19 @@
         <v>47</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55">
-        <v>11.84210526315789</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -14158,10 +14158,10 @@
         <v>24</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>3.947368421052631</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -24993,10 +24993,10 @@
         <v>56</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E45">
         <v>24</v>
@@ -32518,19 +32518,19 @@
         <v>47</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>9.210526315789473</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E20">
         <v>26</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>13.1578947368421</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="H20">
         <v>14</v>
@@ -33202,19 +33202,19 @@
         <v>15</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>9.210526315789473</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E38">
         <v>26</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38">
-        <v>13.1578947368421</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="H38">
         <v>14</v>
@@ -33962,10 +33962,10 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -36492,10 +36492,10 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G50">
-        <v>18.42105263157895</v>
+        <v>38.15789473684211</v>
       </c>
       <c r="H50">
         <v>47</v>
@@ -37978,19 +37978,19 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="H15">
         <v>26</v>
@@ -38291,10 +38291,10 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>48.68421052631579</v>
+        <v>53.94736842105263</v>
       </c>
       <c r="H23">
         <v>34</v>
@@ -38329,10 +38329,10 @@
         <v>17</v>
       </c>
       <c r="F24">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G24">
-        <v>46.83544303797468</v>
+        <v>62.0253164556962</v>
       </c>
       <c r="H24">
         <v>47</v>
@@ -38358,19 +38358,19 @@
         <v>40</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>69.73684210526315</v>
+        <v>86.8421052631579</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G25">
-        <v>69.73684210526315</v>
+        <v>86.8421052631579</v>
       </c>
       <c r="H25">
         <v>48</v>
@@ -38434,19 +38434,19 @@
         <v>56</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E27">
         <v>22</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G27">
-        <v>36.84210526315789</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="H27">
         <v>31</v>
@@ -38709,10 +38709,10 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G34">
-        <v>46.05263157894737</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="H34">
         <v>36</v>
@@ -38823,10 +38823,10 @@
         <v>24</v>
       </c>
       <c r="F37">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G37">
-        <v>32.91139240506329</v>
+        <v>54.43037974683544</v>
       </c>
       <c r="H37">
         <v>47</v>
@@ -38937,10 +38937,10 @@
         <v>26</v>
       </c>
       <c r="F40">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G40">
-        <v>24.05063291139241</v>
+        <v>35.44303797468354</v>
       </c>
       <c r="H40">
         <v>20</v>
@@ -38975,10 +38975,10 @@
         <v>14</v>
       </c>
       <c r="F41">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G41">
-        <v>73.68421052631578</v>
+        <v>85.52631578947368</v>
       </c>
       <c r="H41">
         <v>49</v>
@@ -39004,19 +39004,19 @@
         <v>21</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>18.42105263157895</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G42">
-        <v>18.42105263157895</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="H42">
         <v>28</v>
@@ -39051,10 +39051,10 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G43">
-        <v>52.63157894736842</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="H43">
         <v>57</v>
@@ -39317,10 +39317,10 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G50">
-        <v>48.68421052631579</v>
+        <v>64.47368421052632</v>
       </c>
       <c r="H50">
         <v>47</v>
@@ -39612,19 +39612,19 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E58">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G58">
-        <v>31.57894736842105</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="H58">
         <v>35</v>
@@ -39650,19 +39650,19 @@
         <v>21</v>
       </c>
       <c r="C59">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D59">
-        <v>44.73684210526316</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G59">
-        <v>44.73684210526316</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="H59">
         <v>28</v>
@@ -39802,19 +39802,19 @@
         <v>42</v>
       </c>
       <c r="C63">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D63">
-        <v>44.73684210526316</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G63">
-        <v>44.73684210526316</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="H63">
         <v>28</v>
@@ -39887,10 +39887,10 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G65">
-        <v>19.73684210526316</v>
+        <v>25</v>
       </c>
       <c r="H65">
         <v>28</v>
@@ -40001,10 +40001,10 @@
         <v>26</v>
       </c>
       <c r="F68">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G68">
-        <v>19.73684210526316</v>
+        <v>25</v>
       </c>
       <c r="H68">
         <v>28</v>
@@ -40068,19 +40068,19 @@
         <v>84</v>
       </c>
       <c r="C70">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D70">
-        <v>48.68421052631579</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G70">
-        <v>48.68421052631579</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="H70">
         <v>54</v>
@@ -40153,10 +40153,10 @@
         <v>22</v>
       </c>
       <c r="F72">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G72">
-        <v>39.47368421052632</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="H72">
         <v>55</v>
@@ -41259,10 +41259,10 @@
         <v>56</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E27">
         <v>22</v>
@@ -41373,19 +41373,19 @@
         <v>60</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>13.92405063291139</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>17.72151898734177</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="H30">
         <v>55</v>
@@ -41943,19 +41943,19 @@
         <v>56</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E45">
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -42437,10 +42437,10 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -42969,10 +42969,10 @@
         <v>30</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E72">
         <v>22</v>
@@ -49734,10 +49734,10 @@
         <v>56</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E27">
         <v>22</v>
@@ -49848,19 +49848,19 @@
         <v>60</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>10.12658227848101</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>12.65822784810127</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="H30">
         <v>55</v>
@@ -52027,19 +52027,19 @@
         <v>34</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>9.210526315789473</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>9.210526315789473</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="H13">
         <v>18</v>
@@ -52217,19 +52217,19 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>9.210526315789473</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>9.210526315789473</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -53442,10 +53442,10 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G50">
-        <v>23.68421052631579</v>
+        <v>53.94736842105263</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -53480,10 +53480,10 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G51">
-        <v>6.578947368421052</v>
+        <v>28.94736842105263</v>
       </c>
       <c r="H51">
         <v>25</v>
@@ -56077,10 +56077,10 @@
         <v>24</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -57753,19 +57753,19 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>2.631578947368421</v>
+        <v>98.68421052631578</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>2.631578947368421</v>
+        <v>98.68421052631578</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -58133,19 +58133,19 @@
         <v>40</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>7.894736842105263</v>
+        <v>86.8421052631579</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="G25">
-        <v>7.894736842105263</v>
+        <v>86.8421052631579</v>
       </c>
       <c r="H25">
         <v>6</v>
@@ -58247,19 +58247,19 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>42.10526315789473</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>42.10526315789473</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H28">
         <v>13</v>
@@ -58484,10 +58484,10 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G34">
-        <v>2.631578947368421</v>
+        <v>50</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -58750,10 +58750,10 @@
         <v>14</v>
       </c>
       <c r="F41">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="G41">
-        <v>11.84210526315789</v>
+        <v>88.1578947368421</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -59396,10 +59396,10 @@
         <v>23</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>5.263157894736842</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -59425,19 +59425,19 @@
         <v>21</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D59">
-        <v>2.631578947368421</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="G59">
-        <v>2.631578947368421</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -59577,19 +59577,19 @@
         <v>42</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D63">
-        <v>2.631578947368421</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="G63">
-        <v>2.631578947368421</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -59738,10 +59738,10 @@
         <v>11</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G67">
-        <v>2.631578947368421</v>
+        <v>48.68421052631579</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -59843,19 +59843,19 @@
         <v>84</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>38.15789473684211</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G70">
-        <v>38.15789473684211</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -68749,19 +68749,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>6.578947368421052</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>6.578947368421052</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -69205,19 +69205,19 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>6.578947368421052</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>6.578947368421052</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -69547,19 +69547,19 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>7.894736842105263</v>
+        <v>27.63157894736842</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G28">
-        <v>7.894736842105263</v>
+        <v>27.63157894736842</v>
       </c>
       <c r="H28">
         <v>13</v>
@@ -69585,19 +69585,19 @@
         <v>47</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>6.578947368421052</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E29">
         <v>29</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>5.263157894736842</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -70155,10 +70155,10 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>3.947368421052631</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E44">
         <v>42</v>
@@ -70231,19 +70231,19 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>5.263157894736842</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E46">
         <v>34</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G46">
-        <v>6.578947368421052</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="H46">
         <v>10</v>
@@ -71143,19 +71143,19 @@
         <v>84</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>3.947368421052631</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G70">
-        <v>3.947368421052631</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -72068,10 +72068,10 @@
         <v>47</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>18.42105263157895</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="E20">
         <v>26</v>
@@ -72752,10 +72752,10 @@
         <v>15</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>18.42105263157895</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="E38">
         <v>26</v>
@@ -77984,10 +77984,10 @@
         <v>56</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>6.578947368421052</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E27">
         <v>22</v>
@@ -78098,19 +78098,19 @@
         <v>60</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>10.12658227848101</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E30">
         <v>32</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>12.65822784810127</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="H30">
         <v>55</v>
@@ -80552,10 +80552,10 @@
         <v>26</v>
       </c>
       <c r="F20">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20">
-        <v>47.36842105263158</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="H20">
         <v>75</v>
@@ -80885,10 +80885,10 @@
         <v>47</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2.631578947368421</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E29">
         <v>29</v>
@@ -81236,10 +81236,10 @@
         <v>26</v>
       </c>
       <c r="F38">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38">
-        <v>47.36842105263158</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="H38">
         <v>75</v>
@@ -82519,10 +82519,10 @@
         <v>30</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>9.210526315789473</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E72">
         <v>22</v>
